--- a/medicine/Enfance/Remy_Charlip/Remy_Charlip.xlsx
+++ b/medicine/Enfance/Remy_Charlip/Remy_Charlip.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abraham Remy Charlip (10 janvier 1929-14 août 2012) était un artiste américain, danseur, chorégraphe, illustrateur, metteur en scène, graphiste ainsi que professeur. Il a écrit ou illustré de nombreux livres pour enfant, et reçu plusieurs récompenses.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire de Brooklyn. Il étudie le design textile au lycée à Manhattan, puis le graphisme à l'École des arts décoratifs Cooper Union de New-York.
 Dans les années 1960, il créa une forme unique de chorégraphie, basée sur l'envoi de dessin de chorégraphies à des compagnies de danse, qui choisissaient sans lui les transitions et le contexte.
@@ -543,7 +557,9 @@
           <t>Livres pour enfant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Où est qui ?, 1957
 Heureusement, 1964
@@ -579,9 +595,11 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il remporte de nombreux prix tels que la récompense du meilleur livre illustré de l'année qui lui a été décernée à trois reprises par le New York Times, le premier prix pour ses illustrations à la foire de Bologne[1]...
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il remporte de nombreux prix tels que la récompense du meilleur livre illustré de l'année qui lui a été décernée à trois reprises par le New York Times, le premier prix pour ses illustrations à la foire de Bologne...
 </t>
         </is>
       </c>
